--- a/data/xlsx/Orcus - Ancestries.xlsx
+++ b/data/xlsx/Orcus - Ancestries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Obsidian\Tabletop games\d20 System or D&amp;D-esque\2021 Orcus - 4E clone\GitHub\orcus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E58D209-3D02-4A77-BB9E-D37732BE51CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEB8A3D-1571-49BF-9511-F462923BBBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{395833C3-F072-42E3-B9AA-61F18D49D34E}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="228">
   <si>
     <t>Name</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>Apefolk Power</t>
-  </si>
-  <si>
-    <t>Each apefolk has one of the following powers: *cull the weak* or *rally point*.</t>
   </si>
   <si>
     <t>Automaton</t>
@@ -391,9 +388,6 @@
     <t>Heavy Blade Weapon Proficiency</t>
   </si>
   <si>
-    <t>Hoddydod (Snailfolk)</t>
-  </si>
-  <si>
     <t>Travel Bug</t>
   </si>
   <si>
@@ -407,9 +401,6 @@
   </si>
   <si>
     <t>Mephit</t>
-  </si>
-  <si>
-    <t>Small elemental humanoid (fire, water, earth or air)</t>
   </si>
   <si>
     <t>Breath Weapon</t>
@@ -494,9 +485,6 @@
     <t>Shadow Elf</t>
   </si>
   <si>
-    <t>Medium shadow humanoid (fey)</t>
-  </si>
-  <si>
     <t>Highblood Teleport</t>
   </si>
   <si>
@@ -629,9 +617,6 @@
     <t xml:space="preserve">After each short rest you gain temporary hit points equal to your Constitution modifier (2 + Con at level 11, 5 + Con at level 21). </t>
   </si>
   <si>
-    <t>Choose one: fire (resistance to fire), water (resistance to cold), earth (resistance to acid) or air (resistance to lightning and thunder)</t>
-  </si>
-  <si>
     <t>You can, to a range of 12 squares, see invisible creatures and objects, automatically detect visual illusions and succeed on saving throws against them, and perceive the original form of a shapechanger or a creature that is transformed by magic.</t>
   </si>
   <si>
@@ -656,10 +641,84 @@
     <t>7 squares</t>
   </si>
   <si>
-    <t>&lt;figure&gt;&lt;img src="pics\DnD_Minotaur.png" alt="Minotaur by LadyofHats" style="zoom: 100%;" /&gt;&lt;figcaption&gt;Minotaur by LadyofHats&lt;/figcaption&gt;&lt;/figure&gt;</t>
-  </si>
-  <si>
-    <t>&lt;figure&gt;&lt;img src="pics\DnD_Nixie.png" alt="Nixie by LadyofHats" style="zoom: 100%;" /&gt;&lt;figcaption&gt;Nixie by LadyofHats&lt;/figcaption&gt;&lt;/figure&gt;</t>
+    <t>Small elemental humanoid (air, cold, earth, fire)</t>
+  </si>
+  <si>
+    <t>Each apefolk has one of the following powers: *cull the weak* or *rally the troops*.</t>
+  </si>
+  <si>
+    <t>Grynlocs are seven-foot tall, lanky hairless humanoids with legs that bend backwards, like a horse's. Their long, toothy mouths make them look a little like camels. They are nomadic desert-dwellers who can literally see magic instead of light when they lower a special lid across their eyes. 
+Their ability to shape magic allows them to write messages invisible to the naked eye and craft beautiful raiments of pure magic that require special sight or a *detect magic* invocation to see.</t>
+  </si>
+  <si>
+    <t>Apefolk are humanoids reminiscent of humankind’s closest relatives: gorillas, orang utans and chimpanzees. Most apefolk take a particular pride in legacy and enduring might: memorizing their genealogy, celebrating the history of their centuries-old city-states and seeking personal glory.
+&lt;figure&gt;&lt;img src="pics\RyzomApefolk.jpg" alt="Ryzom MMORPG Concept Art (Apefolk)" style="zoom: 33%;" /&gt;&lt;figcaption&gt;Ryzom MMORPG Concept Art (Apefolk)&lt;/figcaption&gt;&lt;/figure&gt;</t>
+  </si>
+  <si>
+    <t>Stout beings who resemble dwarves with hair of fire, azer are often skilled artisans. Their clans are organized on quasi-military lines.</t>
+  </si>
+  <si>
+    <t>Catfolk are playful humanoids with short fur all over their lithe bodies. They have feline heads, with different clans tending to resemble different breeds of big cat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cervitaurs are fey with the upper body of a small elf and the lower body of a deer. They have branching antlers, the tips of which can be snapped off and thrown for a soporific effect on those they strike. </t>
+  </si>
+  <si>
+    <t>Deepfolk are amphibious humanoids with fish-like features, skilled in underwater combat and wielding weapons crafted from coral and obsidian.</t>
+  </si>
+  <si>
+    <t>Dromite are small insect-like humanoids that form cooperative colonies in gigantic mounds of heaped earth. Their powerful legs allow them to leap great distances, and they can shoot beams of energy from their multi-faceted eyes.</t>
+  </si>
+  <si>
+    <t>Hoddydod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoddydod, also known as snailfolk, are a small folk with humanoid upper bodies and the lower bodies of snails, slugs or other molluscs. They tend to be reclusive and scholarly, and obedient to the demands of horoscopes and the pull of ley lines. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mephits are small, winged imps from the elemental planes. They are mischevious and clever, and often talkative to a fault among strangers and friends alike. Mephits delight in wallowing in the element with which they are associated. 
+Air mephits are resistant to lightning and thunder. Ice mephits are resistant to cold. Earth mephits are resistant to acid. Fire mephits are resistant to fire. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gnolls are humanoid hyenas with a reputation for wildness and cunning. Gnolls often exhibit a strong sense of loyalty to their pack (including their "chosen pack", which can include non-gnolls), valuing camaraderie but with little patience for fools and the naive. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Half-giants typically stand from 7 feet to nearly 8 feet tall. Despite their name, they are their own people and not the product of relations between giants and other humanoids. Half-giants tend to be proud, and see themselves as natural leaders. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobgoblins are bright-skinned (often red or blue) humanoids with pointed ears and heavy brows. They are known for their discipline, honor and rigid hierarchical societies. </t>
+  </si>
+  <si>
+    <t>&lt;figure&gt;&lt;img src="pics\DnD_Minotaur.png" alt="Minotaur by LadyofHats" style="zoom: 100%;" /&gt;&lt;figcaption&gt;Minotaur by LadyofHats&lt;/figcaption&gt;&lt;/figure&gt;
+Strong and imposing half-bull, half-humans, minotaurs are often characterized by their courage, determination, and sometimes a struggle to reconcile their fierce instincts with their human-like emotions.</t>
+  </si>
+  <si>
+    <t>Spriggans are mischievous and diminutive fey creatures, at home in forests and more wild places. Spriggans are short-tempered, and when gripped by powerful emotions can swell to gigantic size.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;figure&gt;&lt;img src="pics\DnD_Nixie.png" alt="Nixie by LadyofHats" style="zoom: 100%;" /&gt;&lt;figcaption&gt;Nixie by LadyofHats&lt;/figcaption&gt;&lt;/figure&gt;
+Selkmays are those who have been claimed by nature spirits, or otherwise bound to wild places. They can take the forms of animals of the water, and each is blessed with a fearsome beauty. Selkmays often feel a duty to serve the community and fight evil. </t>
+  </si>
+  <si>
+    <t>Tall humanoids with stony skin, rooks have a reputation for moodiness and solemnity - but they are respected for their knowledge and determination. Rooks usually build their homes in high places, perched on cliffs or mountaintops.</t>
+  </si>
+  <si>
+    <t>Quicklings are are nimble and hyperactive fey, with their speed making them adept scouts and messengers. However, their frenetic nature can lead to impulsive decisions and a tendency to be easily distracted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frogfolk are amphibious humanoids, with webbed feet and hands and long, sticky tongues. Frogfolk tend to be cheery and adventurous, although their mood quickly turns if their skin dries out. </t>
+  </si>
+  <si>
+    <t>Fetchlings are spectral beings, hovering between life and death. They tend to be dolorous, with deep, sad voices. Their skin and hair is wispy and insubstantial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created beings of brass, clockwork and a pinch of sorcery, the automatons are a relatively new people, one still finding their place in the world. </t>
+  </si>
+  <si>
+    <t>The baldanar are shapeshifters from the Plane of Shadow. In their true form, a baldanar is a grey-skinned humanoid with shallow features and all-black eyes. Planar gossip suggests that the baldanar are the exiled remnants of a mighty terrestrial empire, stripped of their identities as punishment for their hubris. Some baldanar share this belief, and are trying to recover their memories – and their past glory. Others use their ability to shift forms to make something new of their mysterious lives.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shadow elves are enigmatic beings from the Plane of Shadow, the descendents of refugees from the Seelie–Unseelie wars on the Plane of Faerie. They are known for their haunting beauty and inclination towards secrecy and intrigue. </t>
   </si>
 </sst>
 </file>
@@ -1017,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF0D238-CD32-4763-80BE-CE5DA2876250}">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1041,7 +1100,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F1" t="s">
         <v>16</v>
@@ -1091,110 +1150,119 @@
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" t="s">
-        <v>80</v>
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="E2" t="str">
         <f>LOWER(D2)</f>
-        <v>psychic leap</v>
+        <v/>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>189</v>
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>225</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="E3" t="str">
         <f>LOWER(D3)</f>
-        <v>giant form</v>
+        <v>ingenuity</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>201</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
         <v>35</v>
       </c>
-      <c r="I3" t="s">
-        <v>205</v>
-      </c>
-      <c r="J3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>98</v>
-      </c>
       <c r="N3" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s">
-        <v>162</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>163</v>
+        <v>37</v>
+      </c>
+      <c r="P3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="D4" t="s">
-        <v>176</v>
+        <v>43</v>
       </c>
       <c r="E4" t="str">
         <f>LOWER(D4)</f>
-        <v>barrel along</v>
+        <v>vengeance of the pit</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -1203,144 +1271,165 @@
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="J4" t="s">
-        <v>177</v>
+        <v>44</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="N4" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="O4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="P4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q4" t="s">
-        <v>180</v>
+        <v>46</v>
       </c>
       <c r="R4" t="s">
-        <v>181</v>
-      </c>
-      <c r="S4" t="s">
-        <v>182</v>
-      </c>
-      <c r="T4" t="s">
-        <v>183</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="str">
-        <f>LOWER(D5)</f>
-        <v/>
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>226</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
         <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="J5" t="s">
         <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="N5" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s">
-        <v>28</v>
+        <v>188</v>
       </c>
       <c r="Q5" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="R5" t="s">
-        <v>30</v>
+        <v>183</v>
+      </c>
+      <c r="S5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T5" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>208</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E6" t="str">
         <f>LOWER(D6)</f>
-        <v>ingenuity</v>
+        <v>farstrider</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
         <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="J6" t="s">
         <v>24</v>
       </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="N6" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="O6" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="P6" t="s">
-        <v>39</v>
+        <v>189</v>
       </c>
       <c r="Q6" t="s">
-        <v>40</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
+      </c>
+      <c r="R6" t="s">
+        <v>62</v>
+      </c>
+      <c r="S6" t="s">
+        <v>63</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="str">
+        <f>LOWER(D7)</f>
+        <v>sleep dart</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
@@ -1349,253 +1438,238 @@
         <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>68</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="N7" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="O7" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="P7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>56</v>
-      </c>
-      <c r="R7" t="s">
-        <v>187</v>
-      </c>
-      <c r="S7" t="s">
-        <v>51</v>
-      </c>
-      <c r="T7" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
+        <v>210</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" ref="E8:E25" si="0">LOWER(D8)</f>
-        <v>farstrider</v>
+        <f>LOWER(D8)</f>
+        <v>blinding mucus</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
         <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="J8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8">
+        <v>75</v>
+      </c>
+      <c r="L8">
         <v>1</v>
       </c>
       <c r="M8" t="s">
+        <v>76</v>
+      </c>
+      <c r="N8" t="s">
         <v>59</v>
-      </c>
-      <c r="N8" t="s">
-        <v>60</v>
-      </c>
-      <c r="O8" t="s">
-        <v>61</v>
-      </c>
-      <c r="P8" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>62</v>
-      </c>
-      <c r="R8" t="s">
-        <v>63</v>
-      </c>
-      <c r="S8" t="s">
-        <v>64</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>78</v>
+      </c>
+      <c r="C9" t="s">
+        <v>211</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>disappearing act</v>
+        <f>LOWER(D9)</f>
+        <v>psychic leap</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
         <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9">
+        <v>75</v>
+      </c>
+      <c r="L9">
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="N9" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="O9" t="s">
-        <v>86</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>87</v>
-      </c>
-      <c r="R9" t="s">
-        <v>88</v>
+        <v>80</v>
+      </c>
+      <c r="P9" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>224</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>violent rush</v>
+        <f>LOWER(D10)</f>
+        <v>disappearing act</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
         <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="J10" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="O10" t="s">
-        <v>99</v>
-      </c>
-      <c r="P10" t="s">
-        <v>100</v>
+        <v>85</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="Q10" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="R10" t="s">
-        <v>194</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" t="s">
+        <v>91</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>LOWER(D11)</f>
+        <v>lucky</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="M11" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="N11" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="O11" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>200</v>
+        <v>93</v>
       </c>
       <c r="Q11" t="s">
-        <v>104</v>
-      </c>
-      <c r="R11" t="s">
-        <v>105</v>
+        <v>63</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>215</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>stomp</v>
+        <f>LOWER(D12)</f>
+        <v>violent rush</v>
       </c>
       <c r="F12" t="s">
         <v>19</v>
@@ -1604,463 +1678,460 @@
         <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="J12" t="s">
-        <v>109</v>
+        <v>96</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
       </c>
       <c r="M12" t="s">
+        <v>97</v>
+      </c>
+      <c r="N12" t="s">
+        <v>70</v>
+      </c>
+      <c r="O12" t="s">
         <v>98</v>
       </c>
-      <c r="N12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O12" t="s">
-        <v>110</v>
-      </c>
       <c r="P12" t="s">
-        <v>195</v>
+        <v>99</v>
       </c>
       <c r="Q12" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="R12" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" t="s">
-        <v>114</v>
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>careful focus</v>
+        <f>LOWER(D13)</f>
+        <v/>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="J13" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="M13" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="N13" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="O13" t="s">
-        <v>117</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
+      </c>
+      <c r="P13" t="s">
+        <v>195</v>
       </c>
       <c r="Q13" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="R13" t="s">
-        <v>197</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>breath weapon</v>
+        <f>LOWER(D14)</f>
+        <v>stomp</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
         <v>34</v>
       </c>
-      <c r="H14" t="s">
-        <v>21</v>
-      </c>
       <c r="I14" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="M14" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="N14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O14" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="P14" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="Q14" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="R14" t="s">
-        <v>131</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="C15" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>momentum blow</v>
+        <f>LOWER(D15)</f>
+        <v>careful focus</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I15" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="J15" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="M15" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="N15" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="O15" t="s">
-        <v>134</v>
-      </c>
-      <c r="P15" t="s">
-        <v>135</v>
+        <v>116</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="Q15" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="R15" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>90</v>
+      </c>
+      <c r="C16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D16" t="s">
+        <v>119</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>LOWER(D16)</f>
+        <v>travel bug</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H16" t="s">
         <v>34</v>
       </c>
       <c r="I16" t="s">
-        <v>206</v>
+        <v>120</v>
       </c>
       <c r="J16" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="M16" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="N16" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="O16" t="s">
-        <v>144</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="S16" t="s">
-        <v>142</v>
-      </c>
-      <c r="T16" t="s">
-        <v>143</v>
+        <v>122</v>
+      </c>
+      <c r="P16" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="B17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" t="s">
-        <v>209</v>
+        <v>203</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="D17" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>supernatural beauty</v>
+        <f>LOWER(D17)</f>
+        <v>breath weapon</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H17" t="s">
         <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="J17" t="s">
-        <v>24</v>
+        <v>44</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="N17" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="O17" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="P17" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="Q17" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="R17" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="D18" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>highblood teleport</v>
+        <f>LOWER(D18)</f>
+        <v>momentum blow</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" t="s">
         <v>34</v>
       </c>
-      <c r="H18" t="s">
-        <v>35</v>
-      </c>
       <c r="I18" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="J18" t="s">
-        <v>69</v>
-      </c>
-      <c r="K18">
+        <v>24</v>
+      </c>
+      <c r="L18">
         <v>1</v>
       </c>
       <c r="M18" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="N18" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="O18" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="P18" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="Q18" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="R18" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="B19" t="s">
-        <v>165</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>166</v>
+        <v>222</v>
       </c>
       <c r="D19" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>poisonous nip</v>
+        <f>LOWER(D19)</f>
+        <v>deceptive motion</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="G19" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H19" t="s">
         <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J19" t="s">
-        <v>168</v>
+        <v>68</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N19" t="s">
         <v>53</v>
       </c>
       <c r="O19" t="s">
-        <v>86</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>170</v>
-      </c>
-      <c r="R19" t="s">
-        <v>171</v>
-      </c>
-      <c r="S19" t="s">
-        <v>172</v>
-      </c>
-      <c r="T19" t="s">
-        <v>173</v>
+        <v>92</v>
+      </c>
+      <c r="P19" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" t="s">
-        <v>68</v>
+        <v>138</v>
+      </c>
+      <c r="C20" t="s">
+        <v>221</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>sleep dart</v>
+        <f>LOWER(D20)</f>
+        <v/>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" t="s">
+        <v>201</v>
+      </c>
+      <c r="J20" t="s">
+        <v>108</v>
+      </c>
+      <c r="M20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" t="s">
         <v>35</v>
       </c>
-      <c r="H20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" t="s">
-        <v>207</v>
-      </c>
-      <c r="J20" t="s">
-        <v>69</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="M20" t="s">
-        <v>70</v>
-      </c>
-      <c r="N20" t="s">
-        <v>71</v>
-      </c>
       <c r="O20" t="s">
-        <v>72</v>
-      </c>
-      <c r="P20" t="s">
-        <v>188</v>
+        <v>141</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="S20" t="s">
+        <v>139</v>
+      </c>
+      <c r="T20" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>144</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="D21" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>deceptive motion</v>
+        <f>LOWER(D21)</f>
+        <v>supernatural beauty</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G21" t="s">
         <v>34</v>
@@ -2069,205 +2140,250 @@
         <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="J21" t="s">
-        <v>69</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="M21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N21" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="O21" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="P21" t="s">
-        <v>94</v>
+        <v>147</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>148</v>
+      </c>
+      <c r="R21" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>82</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="0"/>
-        <v>vengeance of the pit</v>
+        <f>LOWER(D22)</f>
+        <v>highblood teleport</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="M22" t="s">
+        <v>52</v>
+      </c>
+      <c r="N22" t="s">
+        <v>84</v>
+      </c>
+      <c r="O22" t="s">
         <v>46</v>
       </c>
-      <c r="N22" t="s">
-        <v>36</v>
-      </c>
-      <c r="O22" t="s">
-        <v>185</v>
-      </c>
       <c r="P22" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="Q22" t="s">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="R22" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>156</v>
+      </c>
+      <c r="C23" t="s">
+        <v>219</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v>lucky</v>
+        <f>LOWER(D23)</f>
+        <v>giant form</v>
       </c>
       <c r="F23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" t="s">
         <v>20</v>
       </c>
-      <c r="G23" t="s">
-        <v>52</v>
-      </c>
       <c r="H23" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I23" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J23" t="s">
-        <v>24</v>
+        <v>68</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
       </c>
       <c r="M23" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="N23" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="O23" t="s">
-        <v>93</v>
-      </c>
-      <c r="P23" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>64</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>65</v>
+        <v>158</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>161</v>
+      </c>
+      <c r="C24" t="s">
+        <v>162</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v>travel bug</v>
+        <f>LOWER(D24)</f>
+        <v>poisonous nip</v>
       </c>
       <c r="F24" t="s">
         <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="H24" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I24" t="s">
-        <v>122</v>
+        <v>201</v>
       </c>
       <c r="J24" t="s">
-        <v>24</v>
+        <v>164</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
       </c>
       <c r="M24" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="N24" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="O24" t="s">
-        <v>124</v>
-      </c>
-      <c r="P24" t="s">
-        <v>198</v>
+        <v>85</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>166</v>
+      </c>
+      <c r="R24" t="s">
+        <v>167</v>
+      </c>
+      <c r="S24" t="s">
+        <v>168</v>
+      </c>
+      <c r="T24" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>90</v>
+      </c>
+      <c r="C25" t="s">
+        <v>171</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v>blinding mucus</v>
+        <f>LOWER(D25)</f>
+        <v>barrel along</v>
       </c>
       <c r="F25" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I25" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J25" t="s">
+        <v>173</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
         <v>76</v>
       </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25" t="s">
-        <v>77</v>
-      </c>
       <c r="N25" t="s">
-        <v>60</v>
+        <v>84</v>
+      </c>
+      <c r="O25" t="s">
+        <v>174</v>
+      </c>
+      <c r="P25" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>176</v>
+      </c>
+      <c r="R25" t="s">
+        <v>177</v>
+      </c>
+      <c r="S25" t="s">
+        <v>178</v>
+      </c>
+      <c r="T25" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
